--- a/biology/Microbiologie/Photobacterium/Photobacterium.xlsx
+++ b/biology/Microbiologie/Photobacterium/Photobacterium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Photobacterium est un genre de bactéries, représenté par des bacilles mobiles, à coloration de Gram négatif. Chimio-organotrophes, le métabolisme respiratoire est fermentatif. Ces bactéries sont mobiles le plus souvent.
@@ -514,9 +526,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (12 avril 2020)[3] et ITIS      (12 avril 2020)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (12 avril 2020) et ITIS      (12 avril 2020) :
 Photobacterium angustum Reichelt &amp; al., 1979
 Photobacterium aphoticum Lucena &amp; al., 2011
 Photobacterium aplysiae Seo &amp; al., 2005
@@ -537,7 +551,7 @@
 Photobacterium profundum Nogi &amp; al., 1998
 Photobacterium rosenbergii Thompson &amp; al., 2005
 Photobacterium swingsii Gomez-Gil &amp; al., 2011
-Selon NCBI  (12 avril 2020)[4] :
+Selon NCBI  (12 avril 2020) :
 Photobacterium aestuarii Lo &amp; al. 2014
 Photobacterium alginatilyticum Wang &amp; al. 2017
 Photobacterium andalusiense "" Labella &amp; al. 2018
@@ -573,7 +587,7 @@
 Photobacterium sanguinicancri Gomez-Gil &amp; al. 2016
 Photobacterium swingsii Gomez-Gil &amp; al. 2011
 Photobacterium toruni Labella &amp; al. 2017
-Selon World Register of Marine Species                               (12 avril 2020)[5] :
+Selon World Register of Marine Species                               (12 avril 2020) :
 Photobacterium angustum Reichelt, Baumann &amp; Baumann, 1976
 Photobacterium aplysiae Seo, Bae, Yang, Lee &amp; Kim, 2005
 Photobacterium aquimaris Yoshizawa, Wada, Kita-Tsukamoto, Yokota &amp; Kogure, 2009
